--- a/Data/EC/NIT-9003096256.xlsx
+++ b/Data/EC/NIT-9003096256.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B72EC5F-4443-4F1D-8C27-DF6D0A177682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0B79703-F392-4864-8BDD-A9C6EA5F4388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6ADB7ED9-D2F4-49FE-831E-FE6EB580DFC4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{160E7198-EFE3-4E4F-AD6C-7578EB3BFCC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="34">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,40 +65,46 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73574401</t>
+  </si>
+  <si>
+    <t>HEMITT ENRIQUE ROCHA CASTRO</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>73581603</t>
+  </si>
+  <si>
+    <t>REINALDO AVILA RICARDO</t>
+  </si>
+  <si>
+    <t>1143372467</t>
+  </si>
+  <si>
+    <t>YERIS ANDRES NAVARRO MERCADO</t>
+  </si>
+  <si>
+    <t>1124358444</t>
+  </si>
+  <si>
+    <t>DAGOBERTO BOLAÑOS ORTIZ</t>
+  </si>
+  <si>
     <t>73574315</t>
   </si>
   <si>
     <t>SANDER ORTEGA MARRUGO</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1143372467</t>
-  </si>
-  <si>
-    <t>YERIS ANDRES NAVARRO MERCADO</t>
-  </si>
-  <si>
-    <t>73581603</t>
-  </si>
-  <si>
-    <t>REINALDO AVILA RICARDO</t>
-  </si>
-  <si>
-    <t>73574401</t>
-  </si>
-  <si>
-    <t>HEMITT ENRIQUE ROCHA CASTRO</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -512,7 +518,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ACE8745-CB40-721E-A4DC-0962684D8710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33FB1CF2-BB29-480B-ECF8-7B78C72DDD5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -863,8 +869,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455BF198-6A59-4C94-A2EA-AFD4D0C077AC}">
-  <dimension ref="B2:J37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8135C08A-6E7F-4DAB-836B-A7410E02F6BA}">
+  <dimension ref="B2:J41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -888,7 +894,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -933,7 +939,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -965,12 +971,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>573256</v>
+        <v>709730</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -981,14 +987,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F13" s="5">
         <v>4</v>
@@ -1018,13 +1024,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1041,10 +1047,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G16" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1055,19 +1061,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G17" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1078,19 +1084,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>46805</v>
+        <v>33125</v>
       </c>
       <c r="G18" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1101,19 +1107,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>33125</v>
       </c>
       <c r="G19" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1124,19 +1130,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G20" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1147,19 +1153,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F21" s="18">
-        <v>46805</v>
+        <v>35112</v>
       </c>
       <c r="G21" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1170,19 +1176,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F22" s="18">
-        <v>33125</v>
+        <v>46805</v>
       </c>
       <c r="G22" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1193,19 +1199,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F23" s="18">
-        <v>33125</v>
+        <v>46805</v>
       </c>
       <c r="G23" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1216,19 +1222,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F24" s="18">
         <v>35112</v>
       </c>
       <c r="G24" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1239,19 +1245,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F25" s="18">
         <v>35112</v>
       </c>
       <c r="G25" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1262,19 +1268,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F26" s="18">
-        <v>35112</v>
+        <v>33125</v>
       </c>
       <c r="G26" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1285,19 +1291,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F27" s="18">
-        <v>35112</v>
+        <v>33125</v>
       </c>
       <c r="G27" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1308,19 +1314,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F28" s="18">
         <v>35112</v>
       </c>
       <c r="G28" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1331,19 +1337,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F29" s="18">
         <v>35112</v>
       </c>
       <c r="G29" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1354,75 +1360,167 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F30" s="18">
-        <v>35112</v>
+        <v>33125</v>
       </c>
       <c r="G30" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="22" t="s">
+      <c r="B31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="24">
+      <c r="E31" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G31" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="18">
         <v>35112</v>
       </c>
-      <c r="G31" s="24">
-        <v>828116</v>
-      </c>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="32"/>
-      <c r="H36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="32"/>
-      <c r="H37" s="1" t="s">
+      <c r="G32" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G33" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G34" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="24">
+        <v>33125</v>
+      </c>
+      <c r="G35" s="24">
+        <v>877803</v>
+      </c>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="26"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="32"/>
+      <c r="H40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="C41" s="32"/>
+      <c r="H41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H40:J40"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9003096256.xlsx
+++ b/Data/EC/NIT-9003096256.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0B79703-F392-4864-8BDD-A9C6EA5F4388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ED96AC9-94E1-459A-B28F-F21E55632911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{160E7198-EFE3-4E4F-AD6C-7578EB3BFCC6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{384FBE7C-E513-411D-A3A3-974C203C97E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,40 +71,34 @@
     <t>HEMITT ENRIQUE ROCHA CASTRO</t>
   </si>
   <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>73581603</t>
+  </si>
+  <si>
+    <t>REINALDO AVILA RICARDO</t>
+  </si>
+  <si>
+    <t>1143372467</t>
+  </si>
+  <si>
+    <t>YERIS ANDRES NAVARRO MERCADO</t>
+  </si>
+  <si>
+    <t>73574315</t>
+  </si>
+  <si>
+    <t>SANDER ORTEGA MARRUGO</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
     <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>73581603</t>
-  </si>
-  <si>
-    <t>REINALDO AVILA RICARDO</t>
-  </si>
-  <si>
-    <t>1143372467</t>
-  </si>
-  <si>
-    <t>YERIS ANDRES NAVARRO MERCADO</t>
-  </si>
-  <si>
-    <t>1124358444</t>
-  </si>
-  <si>
-    <t>DAGOBERTO BOLAÑOS ORTIZ</t>
-  </si>
-  <si>
-    <t>73574315</t>
-  </si>
-  <si>
-    <t>SANDER ORTEGA MARRUGO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -203,7 +197,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -216,9 +212,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -418,23 +412,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -462,10 +456,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -518,7 +512,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33FB1CF2-BB29-480B-ECF8-7B78C72DDD5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C68954FA-FA1B-AAFA-5317-6022716E44E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -869,8 +863,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8135C08A-6E7F-4DAB-836B-A7410E02F6BA}">
-  <dimension ref="B2:J41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD301D6-C2CF-4B94-9346-101DE2BA9BA9}">
+  <dimension ref="B2:J37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -894,7 +888,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -939,7 +933,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -971,12 +965,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>709730</v>
+        <v>573256</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -987,14 +981,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F13" s="5">
         <v>4</v>
@@ -1024,13 +1018,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1047,10 +1041,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>35112</v>
+        <v>33125</v>
       </c>
       <c r="G16" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1061,19 +1055,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>35112</v>
+        <v>46805</v>
       </c>
       <c r="G17" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1084,19 +1078,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>33125</v>
       </c>
       <c r="G18" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1107,19 +1101,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
         <v>33125</v>
       </c>
       <c r="G19" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1130,19 +1124,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
-        <v>35112</v>
+        <v>33125</v>
       </c>
       <c r="G20" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1153,19 +1147,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>35112</v>
+        <v>46805</v>
       </c>
       <c r="G21" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1176,19 +1170,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="E22" s="16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
-        <v>46805</v>
+        <v>33125</v>
       </c>
       <c r="G22" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1199,19 +1193,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>46805</v>
+        <v>33125</v>
       </c>
       <c r="G23" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1222,19 +1216,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>35112</v>
       </c>
       <c r="G24" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1245,19 +1239,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F25" s="18">
         <v>35112</v>
       </c>
       <c r="G25" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1268,19 +1262,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G26" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1291,19 +1285,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>18</v>
-      </c>
       <c r="E27" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F27" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G27" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1314,19 +1308,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F28" s="18">
         <v>35112</v>
       </c>
       <c r="G28" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1337,19 +1331,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F29" s="18">
         <v>35112</v>
       </c>
       <c r="G29" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1360,167 +1354,75 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F30" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G30" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="17" t="s">
+      <c r="B31" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G31" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="18">
+      <c r="F31" s="24">
         <v>35112</v>
       </c>
-      <c r="G32" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G33" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G34" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="24">
-        <v>33125</v>
-      </c>
-      <c r="G35" s="24">
-        <v>877803</v>
-      </c>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="26"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="32"/>
-      <c r="H40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="32" t="s">
+      <c r="G31" s="24">
+        <v>1000000</v>
+      </c>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="32"/>
+      <c r="H36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="H37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="32"/>
-      <c r="H41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H36:J36"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9003096256.xlsx
+++ b/Data/EC/NIT-9003096256.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ED96AC9-94E1-459A-B28F-F21E55632911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76696E01-80BD-4054-A717-7B82EFF62362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{384FBE7C-E513-411D-A3A3-974C203C97E5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7AACFC52-6E64-488C-BB68-F845E0F111EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -197,9 +197,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -212,7 +210,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -406,29 +406,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -447,19 +447,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -512,7 +518,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C68954FA-FA1B-AAFA-5317-6022716E44E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06C594FE-9F0E-9A7B-42D3-038B03BA4090}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -863,7 +869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD301D6-C2CF-4B94-9346-101DE2BA9BA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7D1A96-74B7-491A-875D-9B2E1D8B4F61}">
   <dimension ref="B2:J37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -886,49 +892,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -936,7 +942,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -952,7 +958,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9003096256</v>
       </c>
@@ -968,7 +974,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>573256</v>
       </c>
@@ -1037,18 +1043,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>33125</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>908526</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1060,18 +1066,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>46805</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>908526</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1083,18 +1089,18 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>33125</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>1000000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1106,18 +1112,18 @@
       <c r="D19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>33125</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1000000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1129,18 +1135,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>33125</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>908526</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1152,18 +1158,18 @@
       <c r="D21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>46805</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>908526</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1175,18 +1181,18 @@
       <c r="D22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>33125</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>1000000</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1198,18 +1204,18 @@
       <c r="D23" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>33125</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>1000000</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1221,18 +1227,18 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>35112</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>908526</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1244,18 +1250,18 @@
       <c r="D25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>35112</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>908526</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1267,18 +1273,18 @@
       <c r="D26" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>35112</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>1000000</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1290,18 +1296,18 @@
       <c r="D27" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>35112</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>1000000</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1313,18 +1319,18 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>35112</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>908526</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1336,18 +1342,18 @@
       <c r="D29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>35112</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>908526</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1359,47 +1365,47 @@
       <c r="D30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>35112</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="19">
         <v>1000000</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="22" t="s">
+      <c r="B31" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="26">
         <v>35112</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="26">
         <v>1000000</v>
       </c>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="28"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="32"/>
+      <c r="C36" s="34"/>
       <c r="H36" s="1" t="s">
         <v>30</v>
       </c>
@@ -1407,10 +1413,10 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="32"/>
+      <c r="C37" s="34"/>
       <c r="H37" s="1" t="s">
         <v>31</v>
       </c>
